--- a/4. Bitcoin/BTC_with_strategy_1year.xlsx
+++ b/4. Bitcoin/BTC_with_strategy_1year.xlsx
@@ -17631,13 +17631,13 @@
         <v>163530000</v>
       </c>
       <c r="E366" t="n">
-        <v>164335000</v>
+        <v>164389000</v>
       </c>
       <c r="F366" t="n">
-        <v>447.32149336</v>
+        <v>453.40626008</v>
       </c>
       <c r="G366" t="n">
-        <v>73712982665.94479</v>
+        <v>74713081206.81021</v>
       </c>
       <c r="H366" t="n">
         <v>2410000</v>
